--- a/Mirwani_Infantas_Huansha/Fase 2/Evidencias Proyecto/PLANILLA DE EVALUACION AVANCE FASE 2-1.xlsx
+++ b/Mirwani_Infantas_Huansha/Fase 2/Evidencias Proyecto/PLANILLA DE EVALUACION AVANCE FASE 2-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://duoccl0-my.sharepoint.com/personal/ge_galan_profesor_duoc_cl/Documents/2024-2/Clases/CAPSTONE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90E48DE2-C4DD-4D70-9FF5-3A81BD763378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="650" documentId="8_{2EFDF332-31E9-4C74-A6B5-E695634C1C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22620844-D330-4728-A302-A811EDBB99C5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EVALUACION2" sheetId="1" r:id="rId1"/>
@@ -870,9 +870,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -918,6 +915,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1322,49 +1322,49 @@
       <c r="G6" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="18" outlineLevel="1">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="13"/>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" ht="14.45" outlineLevel="1">
-      <c r="A12" s="55"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="42" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="42" t="s">
+      <c r="E12" s="53"/>
+      <c r="F12" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="43" t="s">
+      <c r="G12" s="53"/>
+      <c r="H12" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="42" t="s">
+      <c r="I12" s="53"/>
+      <c r="J12" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="54"/>
+      <c r="K12" s="53"/>
     </row>
     <row r="13" spans="1:11" ht="24" outlineLevel="1">
-      <c r="A13" s="57"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="27" t="str">
         <f>RUBRICA!A4</f>
         <v xml:space="preserve">1. Propone ajustes al Proyecto APT considerando dificultades, facilitadores y retroalimentación. </v>
@@ -1402,7 +1402,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="26.45" customHeight="1" outlineLevel="1">
-      <c r="A14" s="57"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="27" t="str">
         <f>RUBRICA!A5</f>
         <v>2. Aplica una metodología que permite el logro de los objetivos propuestos, de acuerdo a los estándares de la disciplina.</v>
@@ -1443,7 +1443,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="36" outlineLevel="1">
-      <c r="A15" s="57"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="27" t="str">
         <f>RUBRICA!A6</f>
         <v>3. Genera evidencias que dan cuenta del avance del Proyecto APT en relación a documentación, programación y almacenamiento de datos , de acuerdo a lo planificado por el equipo y que cumpla con estándares de desarrollo de la industria</v>
@@ -1481,7 +1481,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="24" outlineLevel="1">
-      <c r="A16" s="57"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="27" t="str">
         <f>RUBRICA!A7</f>
         <v>4. Utiliza de manera precisa el lenguaje técnico en los entregables de acuerdo con lo requerido por la disciplina.</v>
@@ -1522,7 +1522,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="24" outlineLevel="1">
-      <c r="A17" s="57"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="27" t="str">
         <f>RUBRICA!A8</f>
         <v xml:space="preserve">5. Utiliza reglas de redacción, ortografía (literal, puntual, acentual) y las normas para citas y referencias. </v>
@@ -1560,7 +1560,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="24" outlineLevel="1">
-      <c r="A18" s="57"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="27" t="str">
         <f>RUBRICA!A9</f>
         <v>6. Entrega la documentación y evidencias requerida por la asignatura de acuerdo a la estrucutra y nombres solicitados, guardando todas las evidencias de avances en Git</v>
@@ -1601,7 +1601,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="36" outlineLevel="1">
-      <c r="A19" s="57"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="27" t="str">
         <f>RUBRICA!A10</f>
         <v>7.- Generan evidencias claras dentro del repositorio  del aporte de cada uno de los integrantes del equipo que permitan identificar la equidad en el trabajo y la participación de cada estudiante.</v>
@@ -1642,7 +1642,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="36" outlineLevel="1">
-      <c r="A20" s="57"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="27" t="str">
         <f>RUBRICA!A11</f>
         <v>8. Demuestra un trabajo en equipo en donde todos los miembros del equipo expresan con fluidez el conocimiento del tema expuesto y  participan de las actividades planificadas en el proyecto</v>
@@ -1683,7 +1683,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1">
-      <c r="A21" s="55"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="26" t="s">
         <v>13</v>
       </c>
@@ -1713,7 +1713,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1">
-      <c r="A22" s="56"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="29" t="s">
         <v>14</v>
       </c>
@@ -2661,25 +2661,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="44" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="43" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="45"/>
-      <c r="B2" s="50" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="20" t="s">
@@ -2688,19 +2688,19 @@
       <c r="E2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="45"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="36">
         <v>-0.3</v>
       </c>
       <c r="E3" s="36">
         <v>0</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="1:6" ht="55.9" thickBot="1">
       <c r="A4" s="23" t="s">
@@ -8103,7 +8103,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -8114,7 +8114,7 @@
       <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="43.9" thickBot="1">
-      <c r="A2" s="58"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
@@ -8124,7 +8124,7 @@
       <c r="D2" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="58" t="s">
         <v>11</v>
       </c>
     </row>
